--- a/data/trans_dic/P25A_5_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A_5_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por asma</t>
+          <t>Población con limitación por asma (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -573,57 +586,87 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,1</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,59</t>
+          <t>1,8; 7,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,69</t>
+          <t>0,28; 2,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,6; 68,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,63</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,83</t>
+          <t>2,45; 11,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,24; 56,52</t>
+          <t>1,94; 7,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,17</t>
+          <t>1,6; 5,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 53,47</t>
+          <t>5,98; 24,35</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 6,78</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 6,33</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 3,8</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 15,34</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,38</t>
+          <t>0,36; 3,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,05</t>
+          <t>0,16; 1,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,75</t>
+          <t>0,46; 2,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,51; 47,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,19</t>
+          <t>0,3; 2,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,31</t>
+          <t>0,51; 3,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,38; 57,93</t>
+          <t>0,55; 2,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,05</t>
+          <t>1,73; 7,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,03; 48,4</t>
+          <t>2,34; 5,79</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 2,52</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 1,64</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 3,73</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 3,78</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,34%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,89%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,11</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,98</t>
+          <t>0,64; 2,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,98</t>
+          <t>1,21; 4,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 77,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,91</t>
+          <t>0,8; 6,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,16</t>
+          <t>0,29; 2,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,25</t>
+          <t>2,09; 5,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,11</t>
+          <t>1,25; 4,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 32,12</t>
+          <t>1,5; 5,05</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 2,01</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 3,91</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 3,67</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 4,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,98</t>
+          <t>0,46; 3,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,28</t>
+          <t>1,35; 5,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,33; 47,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,89</t>
+          <t>0,19; 2,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,33</t>
+          <t>2,0; 6,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,74; 42,46</t>
+          <t>0,72; 4,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,62; 41,78</t>
+          <t>5,23; 12,1</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 3,89</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 4,22</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 6,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 2,1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 2,82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 2,41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 2,14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 3,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 3,38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 4,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 8,7</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 2,69</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 2,82</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 3,26</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 4,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por asma (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19976</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7696</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4752</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22553</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25399</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29406</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>72329</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26398</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>45375</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>37103</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>77081</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16658</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9496; 39302</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2052; 18143</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15453</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10276; 46650</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12362; 46498</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14348; 52108</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38576; 157099</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10923; 51425</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27737; 73821</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>20315; 61783</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>42095; 167611</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10770</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7328</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17398</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12840</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13730</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15119</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49972</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>41592</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24500</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>22447</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>67369</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>54432</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3363; 30280</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1932; 21800</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7431; 32421</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3213; 31495</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5100; 31187</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6811; 32451</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>26093; 109307</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25305; 62691</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10796; 48616</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10664; 40064</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>40817; 116644</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>35493; 81350</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5855</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12587</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26499</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19244</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7420</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33746</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27180</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>26240</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13274</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>46334</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>53679</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>45484</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21035</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5390; 25078</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13179; 53339</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6630; 54797</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2252; 22790</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19637; 51415</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14568; 47266</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13383; 45171</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4579; 29829</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>29851; 69894</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>32907; 82744</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>25594; 74598</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19902</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24799</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8643</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50305</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15115</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>78110</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>70208</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>39915</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>86753</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6770; 48502</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11622; 49458</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2080; 28009</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27962; 84298</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5509; 31668</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>51480; 119162</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>41629; 110980</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>24862; 68464</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>57681; 127227</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>40372</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>64691</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>51593</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>45480</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>94008</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>89380</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>106558</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>218272</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>134380</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>154071</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>158151</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>263751</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20207; 72487</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>42630; 96960</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30433; 82904</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24377; 73602</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>63155; 134179</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>63624; 120744</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>75290; 167896</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>171454; 313739</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>98844; 189001</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>119583; 197793</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>119279; 228232</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>207896; 351306</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
